--- a/modules/TIER_2_full_classes/INTERACTION/interaction_matrix.xlsx
+++ b/modules/TIER_2_full_classes/INTERACTION/interaction_matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\CryoGrid2020_18\modules\TIER_2_full_classes\INTERACTION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\work\CryoGrid2020_25\modules\TIER_2_full_classes\INTERACTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>GROUND_freeW_seb</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>GROUND_freeW_bucketW_convection_seb_snow</t>
+  </si>
+  <si>
+    <t>GROUND_freezeC_RichardsEqW_seb</t>
+  </si>
+  <si>
+    <t>GROUND_freezeC_RichardsEqW_seb_snow</t>
+  </si>
+  <si>
+    <t>GROUND_freezeC_RichardsEqW_Xice_seb</t>
+  </si>
+  <si>
+    <t>GROUND_freezeC_RichardsEqW_Xice_seb_snow</t>
+  </si>
+  <si>
+    <t>IA_HEAT11_WATER_RichardsEq_11 (missing)</t>
+  </si>
+  <si>
+    <t>IA_HEAT11_WATER11_RichardsEq_SNOW</t>
+  </si>
+  <si>
+    <t>IA_HEAT11_WATER11_RichardsEq_LAKE</t>
+  </si>
+  <si>
+    <t>IA_HEAT11_WATER11_RichardsEq_XICE (missing)</t>
+  </si>
+  <si>
+    <t>IA_HEAT11_WATER11_RichardsEq_SNOW_XICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA_HEAT11_WATER11_RichardsEq_LAKE_XICE </t>
   </si>
 </sst>
 </file>
@@ -470,10 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:BB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,25 +513,25 @@
     <col min="2" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="13" width="29.85546875" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" customWidth="1"/>
-    <col min="16" max="17" width="22.28515625" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" customWidth="1"/>
-    <col min="19" max="20" width="25.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="10" max="17" width="29.85546875" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" customWidth="1"/>
+    <col min="20" max="21" width="22.28515625" customWidth="1"/>
+    <col min="22" max="22" width="27.7109375" customWidth="1"/>
+    <col min="23" max="24" width="25.42578125" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -538,43 +569,55 @@
         <v>31</v>
       </c>
       <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -615,23 +658,23 @@
         <v>3</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>6</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -650,8 +693,20 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -692,23 +747,23 @@
         <v>3</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>6</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
@@ -727,8 +782,20 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -804,8 +871,20 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -881,8 +960,20 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -958,8 +1049,20 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1035,8 +1138,20 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1077,23 +1192,23 @@
         <v>3</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>6</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
@@ -1112,8 +1227,20 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1154,23 +1281,23 @@
         <v>3</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>6</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>6</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
         <v>0</v>
       </c>
@@ -1189,8 +1316,20 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1266,8 +1405,20 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1343,8 +1494,20 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1420,8 +1583,20 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1497,1046 +1672,3346 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>101</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>101</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="I19">
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>101</v>
       </c>
-      <c r="Q19">
+      <c r="U23">
         <v>101</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>9</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>9</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>8</v>
       </c>
-      <c r="J20">
+      <c r="J24">
         <v>9</v>
       </c>
-      <c r="K20">
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="L20">
+      <c r="L24">
         <v>13</v>
       </c>
-      <c r="M20">
+      <c r="M24">
         <v>13</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="N24">
+        <v>16</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>19</v>
+      </c>
+      <c r="Q24">
+        <v>19</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>101</v>
       </c>
-      <c r="T20">
+      <c r="X24">
         <v>101</v>
       </c>
-      <c r="U20">
+      <c r="Y24">
         <v>101</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>9</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>9</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>9</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>8</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>8</v>
       </c>
-      <c r="J21">
+      <c r="J25">
         <v>9</v>
       </c>
-      <c r="K21">
+      <c r="K25">
         <v>9</v>
       </c>
-      <c r="L21">
+      <c r="L25">
         <v>13</v>
       </c>
-      <c r="M21">
+      <c r="M25">
         <v>13</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="N25">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>19</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>101</v>
       </c>
-      <c r="T21">
+      <c r="X25">
         <v>101</v>
       </c>
-      <c r="U21">
+      <c r="Y25">
         <v>101</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="G22">
+      <c r="G26">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="I22">
+      <c r="I26">
         <v>8</v>
       </c>
-      <c r="J22">
+      <c r="J26">
         <v>9</v>
       </c>
-      <c r="K22">
+      <c r="K26">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="L26">
         <v>13</v>
       </c>
-      <c r="M22">
+      <c r="M26">
         <v>13</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
+      <c r="N26">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>19</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>101</v>
       </c>
-      <c r="T22">
+      <c r="X26">
         <v>101</v>
       </c>
-      <c r="U22">
+      <c r="Y26">
         <v>101</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>1</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>1</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>10</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>11</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>18</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
         <v>12</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>10</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>11</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <v>12</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>11</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>18</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>12</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
+        <v>3</v>
+      </c>
+      <c r="AJ37">
+        <v>3</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>3</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>6</v>
+      </c>
+      <c r="AR37">
+        <v>6</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <v>3</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>3</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>3</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>3</v>
+      </c>
+      <c r="AQ38">
+        <v>6</v>
+      </c>
+      <c r="AR38">
+        <v>6</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="AE39">
+        <v>2</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>4</v>
+      </c>
+      <c r="AH39">
+        <v>4</v>
+      </c>
+      <c r="AI39">
+        <v>4</v>
+      </c>
+      <c r="AJ39">
+        <v>4</v>
+      </c>
+      <c r="AK39">
+        <v>2</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>4</v>
+      </c>
+      <c r="AN39">
+        <v>4</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="AE40">
+        <v>2</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>4</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>4</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>2</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>4</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>4</v>
+      </c>
+      <c r="AH41">
+        <v>4</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>2</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>4</v>
+      </c>
+      <c r="AN41">
+        <v>4</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>4</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>2</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>4</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <v>3</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AJ43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>3</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>6</v>
+      </c>
+      <c r="AR43">
+        <v>6</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>10</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>3</v>
+      </c>
+      <c r="AH44">
+        <v>3</v>
+      </c>
+      <c r="AI44">
+        <v>3</v>
+      </c>
+      <c r="AJ44">
+        <v>3</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>3</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <v>6</v>
+      </c>
+      <c r="AR44">
+        <v>6</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="AE45">
+        <v>2</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>4</v>
+      </c>
+      <c r="AH45">
+        <v>4</v>
+      </c>
+      <c r="AI45">
+        <v>4</v>
+      </c>
+      <c r="AJ45">
+        <v>4</v>
+      </c>
+      <c r="AK45">
+        <v>2</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>4</v>
+      </c>
+      <c r="AN45">
+        <v>4</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="AE46">
+        <v>2</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>4</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>4</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>4</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>2</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>2</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE49">
+        <v>5</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>5</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE50">
+        <v>5</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>5</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>101</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE53">
+        <v>7</v>
+      </c>
+      <c r="AF53">
+        <v>7</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>7</v>
+      </c>
+      <c r="AL53">
+        <v>7</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>101</v>
+      </c>
+      <c r="AT53">
+        <v>101</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE54">
+        <v>8</v>
+      </c>
+      <c r="AF54">
+        <v>8</v>
+      </c>
+      <c r="AG54">
+        <v>9</v>
+      </c>
+      <c r="AH54">
+        <v>9</v>
+      </c>
+      <c r="AI54">
+        <v>9</v>
+      </c>
+      <c r="AJ54">
+        <v>9</v>
+      </c>
+      <c r="AK54">
+        <v>8</v>
+      </c>
+      <c r="AL54">
+        <v>8</v>
+      </c>
+      <c r="AM54">
+        <v>9</v>
+      </c>
+      <c r="AN54">
+        <v>9</v>
+      </c>
+      <c r="AO54">
+        <v>13</v>
+      </c>
+      <c r="AP54">
+        <v>13</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>101</v>
+      </c>
+      <c r="AW54">
+        <v>101</v>
+      </c>
+      <c r="AX54">
+        <v>101</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
         <v>36</v>
+      </c>
+      <c r="AE55">
+        <v>8</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AG55">
+        <v>9</v>
+      </c>
+      <c r="AH55">
+        <v>9</v>
+      </c>
+      <c r="AI55">
+        <v>9</v>
+      </c>
+      <c r="AJ55">
+        <v>9</v>
+      </c>
+      <c r="AK55">
+        <v>8</v>
+      </c>
+      <c r="AL55">
+        <v>8</v>
+      </c>
+      <c r="AM55">
+        <v>9</v>
+      </c>
+      <c r="AN55">
+        <v>9</v>
+      </c>
+      <c r="AO55">
+        <v>13</v>
+      </c>
+      <c r="AP55">
+        <v>13</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>101</v>
+      </c>
+      <c r="AW55">
+        <v>101</v>
+      </c>
+      <c r="AX55">
+        <v>101</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE56">
+        <v>8</v>
+      </c>
+      <c r="AF56">
+        <v>8</v>
+      </c>
+      <c r="AG56">
+        <v>9</v>
+      </c>
+      <c r="AH56">
+        <v>9</v>
+      </c>
+      <c r="AI56">
+        <v>9</v>
+      </c>
+      <c r="AJ56">
+        <v>9</v>
+      </c>
+      <c r="AK56">
+        <v>8</v>
+      </c>
+      <c r="AL56">
+        <v>8</v>
+      </c>
+      <c r="AM56">
+        <v>9</v>
+      </c>
+      <c r="AN56">
+        <v>9</v>
+      </c>
+      <c r="AO56">
+        <v>13</v>
+      </c>
+      <c r="AP56">
+        <v>13</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>101</v>
+      </c>
+      <c r="AW56">
+        <v>101</v>
+      </c>
+      <c r="AX56">
+        <v>101</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>3</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>3</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>3</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>1</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>3</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>2</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>10</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>10</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>2</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>10</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>11</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>2</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>2</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>12</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>2</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>10</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>10</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>2</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>10</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>11</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>2</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>2</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>12</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>11</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>12</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
